--- a/testCases-Dilruba/Test _cases_gaps.xlsx
+++ b/testCases-Dilruba/Test _cases_gaps.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14038\Documents\piit\Homeworks\homework5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED90F848-406A-41C5-AC5A-3B92C5732EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A271D-4052-4820-A681-E85DA323EAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="walmart_test_cases" sheetId="2" r:id="rId2"/>
+    <sheet name="gaps_test_cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -292,9 +292,6 @@
     <t>Card is added to the cart successfully.</t>
   </si>
   <si>
-    <t>User can check gift card balance with wrong gift card number</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.Click on the 'CHECK YOUR GIFTCARD BALANCE' </t>
   </si>
   <si>
@@ -449,6 +446,9 @@
   </si>
   <si>
     <t>a new page lands to checkout as a returing customer or guest customer to sign in.</t>
+  </si>
+  <si>
+    <t>User can not check gift card balance with wrong gift card number</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891D37A8-CDEB-4FAA-8F10-CC0C1CBF9986}">
   <dimension ref="A1:I585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:E68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1498,7 +1498,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>36</v>
@@ -1546,10 +1546,10 @@
       <c r="B12" s="11"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1561,10 +1561,10 @@
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1576,10 +1576,10 @@
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1591,10 +1591,10 @@
       <c r="B15" s="11"/>
       <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1606,10 +1606,10 @@
       <c r="B16" s="12"/>
       <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1657,10 +1657,10 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -1672,10 +1672,10 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1687,10 +1687,10 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1702,10 +1702,10 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1753,10 +1753,10 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1768,10 +1768,10 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -1783,7 +1783,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>39</v>
@@ -1798,7 +1798,7 @@
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>54</v>
@@ -1813,10 +1813,10 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -1831,7 +1831,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
@@ -1864,10 +1864,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -1879,10 +1879,10 @@
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -1894,7 +1894,7 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>39</v>
@@ -1909,7 +1909,7 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>53</v>
@@ -1924,10 +1924,10 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -1942,7 +1942,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>36</v>
@@ -1975,10 +1975,10 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -1990,10 +1990,10 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -2005,7 +2005,7 @@
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>52</v>
@@ -2020,7 +2020,7 @@
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>53</v>
@@ -2035,10 +2035,10 @@
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -2050,10 +2050,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>36</v>
@@ -2086,10 +2086,10 @@
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -2101,10 +2101,10 @@
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -2116,10 +2116,10 @@
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -2131,7 +2131,7 @@
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>59</v>
@@ -2146,10 +2146,10 @@
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -2161,10 +2161,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>36</v>
@@ -2197,10 +2197,10 @@
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -2212,10 +2212,10 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -2227,7 +2227,7 @@
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>45</v>
@@ -2245,7 +2245,7 @@
         <v>44</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>36</v>
@@ -2278,10 +2278,10 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -2293,10 +2293,10 @@
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -2308,7 +2308,7 @@
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>45</v>
@@ -2323,10 +2323,10 @@
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -2338,7 +2338,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>49</v>
@@ -2374,10 +2374,10 @@
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
@@ -2389,10 +2389,10 @@
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -2404,7 +2404,7 @@
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>45</v>
@@ -2419,10 +2419,10 @@
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -2434,10 +2434,10 @@
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
